--- a/BD(Копия).xlsx
+++ b/BD(Копия).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -111,6 +111,38 @@
   <si>
     <t>Строка ДНК с мотивом в скобках.
 Пример: GATATTG (ATA)</t>
+  </si>
+  <si>
+    <t>HAMM</t>
+  </si>
+  <si>
+    <t>Подсчет точечных мутаций</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мутация — ошибка.
+Мутации создают несколько различных версий одной и той же генетической информации. Они называются аллелями. Именно эти различия делают каждого из нас уникальным, создавая вариации в цвете волос, кожи, росте, комплекции, поведении и нашей способности бороться с болезнями.
+Самым простым и наиболее распространенным типом мутации является точечная мутация.
+Точечная мутация — тип мутации в ДНК или РНК, для которого характерна замена одного азотистого основания другим. Термин также применяется и в отношении парных замен, инсерции или делеции одного или нескольких нуклеотидов.
+</t>
+  </si>
+  <si>
+    <t>Две строки днк через косую линию.
+Пример: GAT / GTA</t>
+  </si>
+  <si>
+    <t>PRTM</t>
+  </si>
+  <si>
+    <t>Расчет массы белка</t>
+  </si>
+  <si>
+    <t>Белковая нить не более 1000 аа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общий вес белка определяется по таблице моноизотопных масс.
+Таблица моноизотопных масс для аминокислот представляют собой таблицу, в которой перечисленны массы каждого возможного аминокислотного остатка
+Измеряется в dalton Da (дальтон)
+</t>
   </si>
 </sst>
 </file>
@@ -448,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,6 +591,34 @@
         <v>24</v>
       </c>
     </row>
+    <row r="8" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BD(Копия).xlsx
+++ b/BD(Копия).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -143,6 +143,20 @@
 Таблица моноизотопных масс для аминокислот представляют собой таблицу, в которой перечисленны массы каждого возможного аминокислотного остатка
 Измеряется в dalton Da (дальтон)
 </t>
+  </si>
+  <si>
+    <t>Скажем, у нас есть коллекция ДНК цепей с одинаковой длинной. Их матрица профиля – это матрица, кодирующая число раз, которое каждый символ алфавита встречается в каждой позиции из набора строк.
+Строка консенсуса – последовательность, составленная из нуклеотидов , наиболее часто встречающихся в  строках одинаковой длины.</t>
+  </si>
+  <si>
+    <t>CONS</t>
+  </si>
+  <si>
+    <t>Консенсус и профиль ДНК</t>
+  </si>
+  <si>
+    <t>Коллекция не более 10 строк ДНК одинаковой длны через разделитель
+Пример: ATC/GAT/…</t>
   </si>
 </sst>
 </file>
@@ -480,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,6 +633,20 @@
         <v>31</v>
       </c>
     </row>
+    <row r="10" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
